--- a/think-and-do/input/12.4东兴直配业务审批表 - 1.xlsx
+++ b/think-and-do/input/12.4东兴直配业务审批表 - 1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ruidu\Documents\GitHub\summary-of-work-and-study\think-and-do\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A86C088-EE16-4493-8D3C-DF094D12F1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="9120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,29 +130,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -171,7 +177,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -183,9 +189,17 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="15">
@@ -652,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -670,7 +684,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -684,7 +698,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -698,7 +712,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -713,133 +727,139 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="113">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="15"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="13"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="14"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="16"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="9"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="17"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="18"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="20"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="21"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="22"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="23"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="24"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="25"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="31"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="41"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="42"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="44"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="48"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="50"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="52"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="55"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="57"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="58"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="60"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="61"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="62"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="63"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="64"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="65"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="66"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="69"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="70"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="71"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="6"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="73"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="74"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="80"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="84"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="85"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="87"/>
-    <cellStyle name="百分比 2" xfId="88"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="13" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="14" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="17" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="19" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="20" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="37" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="41" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="43" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="47" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="48" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="50" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="51" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="54" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="58" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="59" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="60" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="63" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="64" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="65" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="66" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="69" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="70" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="71" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="72" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="74" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="75" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="76" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="77" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="80" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="81" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="82" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="85" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="10" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="86" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="87" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="百分比 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="89"/>
-    <cellStyle name="常规 11" xfId="90"/>
-    <cellStyle name="常规 12" xfId="91"/>
-    <cellStyle name="常规 13" xfId="92"/>
-    <cellStyle name="常规 14" xfId="93"/>
-    <cellStyle name="常规 15" xfId="94"/>
-    <cellStyle name="常规 16" xfId="96"/>
-    <cellStyle name="常规 17" xfId="97"/>
-    <cellStyle name="常规 19" xfId="98"/>
-    <cellStyle name="常规 2" xfId="99"/>
-    <cellStyle name="常规 2 41" xfId="45"/>
-    <cellStyle name="常规 21" xfId="95"/>
-    <cellStyle name="常规 3" xfId="27"/>
-    <cellStyle name="常规 4" xfId="30"/>
-    <cellStyle name="常规 5" xfId="33"/>
-    <cellStyle name="常规 6" xfId="3"/>
-    <cellStyle name="常规 7" xfId="36"/>
-    <cellStyle name="常规 8" xfId="40"/>
-    <cellStyle name="常规 9" xfId="102"/>
-    <cellStyle name="注释 10" xfId="26"/>
-    <cellStyle name="注释 11" xfId="29"/>
-    <cellStyle name="注释 12" xfId="32"/>
-    <cellStyle name="注释 13" xfId="2"/>
-    <cellStyle name="注释 14" xfId="35"/>
-    <cellStyle name="注释 15" xfId="39"/>
-    <cellStyle name="注释 16" xfId="101"/>
-    <cellStyle name="注释 17" xfId="103"/>
-    <cellStyle name="注释 18" xfId="104"/>
-    <cellStyle name="注释 19" xfId="105"/>
-    <cellStyle name="注释 2" xfId="106"/>
-    <cellStyle name="注释 20" xfId="38"/>
-    <cellStyle name="注释 21" xfId="100"/>
-    <cellStyle name="注释 3" xfId="107"/>
-    <cellStyle name="注释 4" xfId="108"/>
-    <cellStyle name="注释 5" xfId="5"/>
-    <cellStyle name="注释 6" xfId="109"/>
-    <cellStyle name="注释 7" xfId="110"/>
-    <cellStyle name="注释 8" xfId="111"/>
-    <cellStyle name="注释 9" xfId="112"/>
+    <cellStyle name="常规 10" xfId="89" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="常规 11" xfId="90" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="常规 12" xfId="91" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="常规 13" xfId="92" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="常规 14" xfId="93" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 15" xfId="94" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规 16" xfId="96" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="常规 17" xfId="97" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="常规 19" xfId="98" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="常规 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="常规 2 41" xfId="45" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="常规 21" xfId="95" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 3" xfId="27" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 4" xfId="30" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 5" xfId="33" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 7" xfId="36" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="常规 8" xfId="40" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 9" xfId="102" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="注释 10" xfId="26" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="注释 11" xfId="29" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="注释 12" xfId="32" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="注释 13" xfId="2" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="注释 14" xfId="35" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="注释 15" xfId="39" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="注释 16" xfId="101" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="注释 17" xfId="103" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="注释 18" xfId="104" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="注释 19" xfId="105" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="注释 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="注释 20" xfId="38" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="注释 21" xfId="100" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="注释 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="注释 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="注释 5" xfId="5" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="注释 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="注释 7" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="注释 8" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="注释 9" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1129,34 +1149,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="43.125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="34.625" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" customWidth="1"/>
+    <col min="13" max="13" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="27.75">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1173,48 +1193,48 @@
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1251,7 +1271,7 @@
       </c>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1287,10 +1307,10 @@
         <v>20</v>
       </c>
       <c r="M4" s="6">
-        <v>13577197780</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13677190780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1327,7 +1347,7 @@
       </c>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1364,7 +1384,7 @@
       </c>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1405,7 +1425,7 @@
         <v>15198744832</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1441,10 +1461,10 @@
         <v>30</v>
       </c>
       <c r="M8" s="6">
-        <v>13608715767</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13608715768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1459,7 +1479,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1474,7 +1494,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1489,7 +1509,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1504,7 +1524,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1519,7 +1539,7 @@
       <c r="L13" s="22"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="23.1" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -1541,13 +1561,13 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="10:10">
       <c r="J27"/>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="10:10">
       <c r="J28"/>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="10:10">
       <c r="J29"/>
     </row>
   </sheetData>
@@ -1557,6 +1577,6 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75138888888888899" bottom="0.75138888888888899" header="0.297916666666667" footer="0.297916666666667"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>